--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Catégorie</t>
   </si>
@@ -119,7 +119,10 @@
     <t>mettre une brieve description du site</t>
   </si>
   <si>
-    <t>mettre une description du site azvec des mots clé</t>
+    <t>mettre une description du site avec des mots clé</t>
+  </si>
+  <si>
+    <t>https://web.dev/</t>
   </si>
   <si>
     <t>titre manquant</t>
@@ -146,14 +149,73 @@
     <t>mettre fr ou en selon votre langue pour l'attribut lang</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://web.dev/</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
     <t>les titre h1 h2 h3 sont pas en ordre</t>
+  </si>
+  <si>
+    <t>titre h3 placé avant les titres h2</t>
+  </si>
+  <si>
+    <t>respectz l'ordre établi h1, h2, h3 etc...</t>
+  </si>
+  <si>
+    <t>remplacez les h3 par les h2 et les h2 par des h3</t>
+  </si>
+  <si>
+    <t>unicode encore utilisé &amp;gt;</t>
+  </si>
+  <si>
+    <t>du code des anciennes version de l'html utilisé</t>
+  </si>
+  <si>
+    <t>le remplacé par le bon code corrigé par les mise à jour du html</t>
+  </si>
+  <si>
+    <t>effacé l'ancien code par  la dernier version du html</t>
+  </si>
+  <si>
+    <t>pas de description dans les liens du footer</t>
+  </si>
+  <si>
+    <t>dans le footer les liens vers les réseaux sociaux n'ont que social qui est leur class comme description</t>
+  </si>
+  <si>
+    <t>ajouter des noms accessibles aux liens des réseaux sociaux</t>
+  </si>
+  <si>
+    <t>mettre une description au survol de la souris par exemple avec un span et un title dans le lien a</t>
+  </si>
+  <si>
+    <t>minifier le js et le css</t>
+  </si>
+  <si>
+    <t>enlever tous les liens inutiles du footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisez &lt;link rel="preload"&gt;pour récupérer vos fichiers de polices plus tôt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placez les scripts js plus bas dans le code </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -203,12 +265,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +337,7 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
@@ -613,22 +669,28 @@
       <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -636,16 +698,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -653,26 +718,80 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="E9" s="14"/>
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="E10" s="14"/>
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -1667,10 +1786,15 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F3"/>
     <hyperlink r:id="rId2" ref="F4"/>
+    <hyperlink r:id="rId3" ref="F5"/>
+    <hyperlink r:id="rId4" ref="F6"/>
+    <hyperlink r:id="rId5" ref="F7"/>
+    <hyperlink r:id="rId6" ref="F8"/>
+    <hyperlink r:id="rId7" ref="F10"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>